--- a/medicine/Enfance/Martine_Beck/Martine_Beck.xlsx
+++ b/medicine/Enfance/Martine_Beck/Martine_Beck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martine Beck (née en 1947) est une psychothérapeute française, ainsi qu'une auteure d'albums illustrés et d'autres ouvrages pour enfants.
-Elle a suivi des études de lettres à l'Université de Paris et de psychologie de l'enfant[1].
-Après ses études, elle travaille comme psychothérapeute tout en écrivant des albums pour les enfants ainsi que des scénarios de dessins animés[1] dans une volonté de ne plus quitter le monde de l'enfance[2].
+Elle a suivi des études de lettres à l'Université de Paris et de psychologie de l'enfant.
+Après ses études, elle travaille comme psychothérapeute tout en écrivant des albums pour les enfants ainsi que des scénarios de dessins animés dans une volonté de ne plus quitter le monde de l'enfance.
 Elle publie Le Mariage d'Ours Brun et d'Ourse Blanche (1989), Ours Brun et Ourse Blanche sous l'avalanche (1990), et Balibar et les oursonnes (1991). Ils racontent l'histoire de deux ours solitaires, Ours Brun et Ours Blanc, qui se retrouvent, se marient et ont un fils : Balibar. Mais lorsqu'ils ont des jumeaux, Balibar se sent abandonné.
-Ces livres, illustrés par Marie H. Henry, ont été traduits en anglais[3], en allemand, en chinois, en japonais et en grec.
+Ces livres, illustrés par Marie H. Henry, ont été traduits en anglais, en allemand, en chinois, en japonais et en grec.
 </t>
         </is>
       </c>
@@ -517,18 +529,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Albums illustrés
-Illustrés par Joëlle Boucher
-Tu te souviens? (2001[2])
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Illustrés par Joëlle Boucher
+Tu te souviens? (2001)
 おぼえている? (Oboeteiru??) (2002)
-Mélina fabrique son miel (2002)[1]
+Mélina fabrique son miel (2002)
 Priscilla tisse sa toile (2002)
-Soleillou perd sa queue (2002)[1]
+Soleillou perd sa queue (2002)
 Talpa cherche son repas (2002)
 Titine se réveille (2002)
 Tout-Roux fait ses provisions (2002)
 Zinzine fait son nid (2002)
-Sublime devient papillon (2003)[1]
+Sublime devient papillon (2003)
 Illustré par Pierre Cornuel
 Léopardi Galoupi (1999)
 Illustré par Stéphane Girel
@@ -551,9 +568,43 @@
 Le Sommeil et ses secrets (1987)
 Sleep and Dreams (1988)
 Die Welt entdecken: Schlaf und Traum (1988)
-chinois : 睡覺和作夢 ; pinyin : Shui jiao he zuo meng (1992)
-Autres livres pour enfants
-Petit dictionnaire de la mythologie (1985)</t>
+chinois : 睡覺和作夢 ; pinyin : Shui jiao he zuo meng (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Martine_Beck</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_Beck</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petit dictionnaire de la mythologie (1985)</t>
         </is>
       </c>
     </row>
